--- a/v3/example/Index.xlsx
+++ b/v3/example/Index.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18480" windowHeight="9000"/>
+    <workbookView windowWidth="28080" windowHeight="15420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <t>表文件名</t>
   </si>
   <si>
-    <t>符号表</t>
+    <t>类型表</t>
   </si>
   <si>
     <t>Type.xlsx</t>
@@ -61,9 +61,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -92,32 +92,107 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,16 +206,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,82 +224,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,25 +251,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,7 +419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,145 +431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,8 +463,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,21 +500,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -510,26 +510,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,6 +537,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -565,10 +565,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,133 +577,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1045,7 +1045,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/v3/example/Index.xlsx
+++ b/v3/example/Index.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
+    <t>模式</t>
+  </si>
+  <si>
     <t>表类型</t>
-  </si>
-  <si>
-    <t>表名</t>
   </si>
   <si>
     <t>表文件名</t>
@@ -61,9 +61,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -92,6 +92,119 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -100,104 +213,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -206,22 +221,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -229,8 +228,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,55 +251,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,19 +419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,103 +431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,15 +460,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -480,6 +471,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,17 +523,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,35 +557,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -565,10 +565,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,133 +577,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1045,7 +1045,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/v3/example/Index.xlsx
+++ b/v3/example/Index.xlsx
@@ -31,6 +31,18 @@
     <t>Type.xlsx</t>
   </si>
   <si>
+    <t>键值表</t>
+  </si>
+  <si>
+    <t>ExampleKV</t>
+  </si>
+  <si>
+    <t>KV.xlsx</t>
+  </si>
+  <si>
+    <t>KV2.xlsx</t>
+  </si>
+  <si>
     <t>数据表</t>
   </si>
   <si>
@@ -41,18 +53,6 @@
   </si>
   <si>
     <t>Data2.xlsx</t>
-  </si>
-  <si>
-    <t>键值表</t>
-  </si>
-  <si>
-    <t>ExampleKV</t>
-  </si>
-  <si>
-    <t>KV.xlsx</t>
-  </si>
-  <si>
-    <t>KV2.xlsx</t>
   </si>
 </sst>
 </file>
@@ -60,10 +60,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -101,6 +101,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -108,9 +116,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -121,53 +144,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,38 +183,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -221,6 +191,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -228,9 +228,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,19 +251,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,7 +365,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,43 +395,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,19 +413,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,79 +425,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,6 +460,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -471,6 +482,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,15 +528,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -519,26 +539,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,145 +565,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1042,10 +1042,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1153,11 +1153,6 @@
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" ht="16.5" spans="1:3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
